--- a/cap_line_original1.xlsx
+++ b/cap_line_original1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurgu\OneDrive - Technion\semester4\הצגת מידע חזותי וקוגניציה\InfoVizProejct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\semester4\cognition\פרויקט קוגניציה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB51FD2D-B401-4460-8C37-3E840EF28BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B64A2E1-0C74-46EE-8E45-7649F4943571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{154010F1-640B-4B70-840B-CEB0B9F00E7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{154010F1-640B-4B70-840B-CEB0B9F00E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3103C0-F967-46D6-B381-282494A59392}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
